--- a/download/TimeSheet.xlsx
+++ b/download/TimeSheet.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\Desktop\kaixi\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiXi\Desktop\kaixi\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B6D000-6AC5-4F9E-AF80-1E3E14A1208F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF96B7B-11FA-4866-8CCB-8FBC4D2C7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
+    <sheet name="August" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,13 +69,21 @@
     <t>165:35</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -107,7 +116,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,22 +335,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -345,9 +360,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -627,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -722,7 +754,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" ref="E5:E34" si="0">C7-D7-B7</f>
+        <f t="shared" ref="E7:E32" si="0">C7-D7-B7</f>
         <v>0.36458333333333337</v>
       </c>
     </row>
@@ -1115,6 +1147,535 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DDCCDD-2138-4B81-9CA3-E2CEE6B9294E}">
+  <dimension ref="A1:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>44774</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <f>C4-B4-D4</f>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44775</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <f>C5-B5-D5</f>
+        <v>0.35069444444444442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>44776</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>44777</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.8125</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="23">
+        <f>C7-B7-D7</f>
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>44778</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="23">
+        <f>C8-B8-D8</f>
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>44779</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>44780</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
+        <v>44781</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="23">
+        <f>C11-B11-D11</f>
+        <v>0.18750000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44782</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>44783</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>44784</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>44785</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>44786</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>44787</v>
+      </c>
+      <c r="B17" s="28">
+        <v>0.375</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.75</v>
+      </c>
+      <c r="D17" s="28">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>44788</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" ref="E18:E22" si="0">C18-B18-D18</f>
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
+        <v>44789</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
+        <v>44790</v>
+      </c>
+      <c r="B20" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D20" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="23">
+        <f t="shared" si="0"/>
+        <v>0.35416666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
+        <v>44791</v>
+      </c>
+      <c r="B21" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D21" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
+        <v>44792</v>
+      </c>
+      <c r="B22" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C22" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D22" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="27">
+        <v>44793</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="27">
+        <v>44794</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
+        <v>44795</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D25" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="23">
+        <f>C25-B25-D25</f>
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>44796</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
+        <v>44797</v>
+      </c>
+      <c r="B27" s="22">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C27" s="22">
+        <v>0.8125</v>
+      </c>
+      <c r="D27" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="23">
+        <f t="shared" ref="E27:E29" si="1">C27-B27-D27</f>
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>44798</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C28" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D28" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="23">
+        <f t="shared" si="1"/>
+        <v>0.32291666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
+        <v>44799</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="27">
+        <v>44800</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="27">
+        <v>44801</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>44802</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D32" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" ref="E32:E34" si="2">C32-B32-D32</f>
+        <v>0.29861111111111105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
+        <v>44803</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D33" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="2"/>
+        <v>0.22916666666666671</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>44804</v>
+      </c>
+      <c r="B34" s="25">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C34" s="25">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D34" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="2"/>
+        <v>0.32986111111111105</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/download/TimeSheet.xlsx
+++ b/download/TimeSheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiXi\Desktop\kaixi\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj1237hb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF96B7B-11FA-4866-8CCB-8FBC4D2C7251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
     <sheet name="August" sheetId="2" r:id="rId2"/>
+    <sheet name="September" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="12">
   <si>
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,25 +77,32 @@
     <t>140:20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>169:20</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,8 +122,15 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +149,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -331,11 +351,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -377,9 +412,13 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -656,21 +695,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -678,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -687,7 +726,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>44743</v>
       </c>
@@ -722,7 +761,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>44744</v>
       </c>
@@ -731,7 +770,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>44745</v>
       </c>
@@ -740,7 +779,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>44746</v>
       </c>
@@ -758,7 +797,7 @@
         <v>0.36458333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>44747</v>
       </c>
@@ -776,7 +815,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>44748</v>
       </c>
@@ -794,7 +833,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>44749</v>
       </c>
@@ -812,7 +851,7 @@
         <v>0.38541666666666674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>44750</v>
       </c>
@@ -830,7 +869,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>44751</v>
       </c>
@@ -839,7 +878,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>44752</v>
       </c>
@@ -848,7 +887,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>44753</v>
       </c>
@@ -866,7 +905,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>44754</v>
       </c>
@@ -884,7 +923,7 @@
         <v>0.39583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
         <v>44755</v>
       </c>
@@ -902,7 +941,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>44756</v>
       </c>
@@ -920,7 +959,7 @@
         <v>0.48055555555555568</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>44757</v>
       </c>
@@ -938,7 +977,7 @@
         <v>0.52361111111111103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="9">
         <v>44758</v>
       </c>
@@ -947,7 +986,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="9">
         <v>44759</v>
       </c>
@@ -956,7 +995,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="9">
         <v>44760</v>
       </c>
@@ -965,7 +1004,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="9">
         <v>44761</v>
       </c>
@@ -974,7 +1013,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>44762</v>
       </c>
@@ -992,7 +1031,7 @@
         <v>0.27361111111111108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>44763</v>
       </c>
@@ -1010,7 +1049,7 @@
         <v>0.46875000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>44764</v>
       </c>
@@ -1028,7 +1067,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="9">
         <v>44765</v>
       </c>
@@ -1037,7 +1076,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="9">
         <v>44766</v>
       </c>
@@ -1046,7 +1085,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="9">
         <v>44767</v>
       </c>
@@ -1055,7 +1094,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="13">
         <v>44768</v>
       </c>
@@ -1073,7 +1112,7 @@
         <v>0.30208333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="13">
         <v>44769</v>
       </c>
@@ -1091,7 +1130,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>44770</v>
       </c>
@@ -1109,7 +1148,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>44771</v>
       </c>
@@ -1127,7 +1166,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="9">
         <v>44772</v>
       </c>
@@ -1136,7 +1175,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="14">
         <v>44773</v>
       </c>
@@ -1145,7 +1184,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="17"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="2"/>
     </row>
   </sheetData>
@@ -1156,16 +1195,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DDCCDD-2138-4B81-9CA3-E2CEE6B9294E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1221,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1199,7 +1238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="13">
         <v>44774</v>
       </c>
@@ -1217,7 +1256,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="13">
         <v>44775</v>
       </c>
@@ -1235,7 +1274,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="13">
         <v>44776</v>
       </c>
@@ -1252,7 +1291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="13">
         <v>44777</v>
       </c>
@@ -1270,7 +1309,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="13">
         <v>44778</v>
       </c>
@@ -1288,7 +1327,7 @@
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="27">
         <v>44779</v>
       </c>
@@ -1297,7 +1336,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="27">
         <v>44780</v>
       </c>
@@ -1306,7 +1345,7 @@
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="13">
         <v>44781</v>
       </c>
@@ -1324,7 +1363,7 @@
         <v>0.18750000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="13">
         <v>44782</v>
       </c>
@@ -1341,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="13">
         <v>44783</v>
       </c>
@@ -1358,7 +1397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="27">
         <v>44784</v>
       </c>
@@ -1367,7 +1406,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="13">
         <v>44785</v>
       </c>
@@ -1384,7 +1423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="27">
         <v>44786</v>
       </c>
@@ -1393,7 +1432,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="27">
         <v>44787</v>
       </c>
@@ -1408,7 +1447,7 @@
       </c>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="13">
         <v>44788</v>
       </c>
@@ -1426,7 +1465,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="13">
         <v>44789</v>
       </c>
@@ -1444,7 +1483,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="13">
         <v>44790</v>
       </c>
@@ -1462,7 +1501,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="13">
         <v>44791</v>
       </c>
@@ -1480,7 +1519,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="13">
         <v>44792</v>
       </c>
@@ -1498,7 +1537,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="27">
         <v>44793</v>
       </c>
@@ -1507,7 +1546,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="27">
         <v>44794</v>
       </c>
@@ -1516,7 +1555,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="13">
         <v>44795</v>
       </c>
@@ -1534,7 +1573,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="13">
         <v>44796</v>
       </c>
@@ -1551,7 +1590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="13">
         <v>44797</v>
       </c>
@@ -1569,7 +1608,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="13">
         <v>44798</v>
       </c>
@@ -1587,7 +1626,7 @@
         <v>0.32291666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="13">
         <v>44799</v>
       </c>
@@ -1605,7 +1644,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="27">
         <v>44800</v>
       </c>
@@ -1614,7 +1653,7 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="27">
         <v>44801</v>
       </c>
@@ -1623,7 +1662,7 @@
       <c r="D31" s="28"/>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="13">
         <v>44802</v>
       </c>
@@ -1641,7 +1680,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="13">
         <v>44803</v>
       </c>
@@ -1659,7 +1698,7 @@
         <v>0.22916666666666671</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="24">
         <v>44804</v>
       </c>
@@ -1682,4 +1721,529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13">
+        <v>44805</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.43402777777777779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13">
+        <v>44806</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>0.41666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13">
+        <v>44807</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D6" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.32291666666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="33">
+        <v>44808</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="33">
+        <v>44809</v>
+      </c>
+      <c r="B8" s="34">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C8" s="34">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D8" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="35">
+        <v>0.39236111111111105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="13">
+        <v>44810</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.31597222222222215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13">
+        <v>44811</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D10" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.31944444444444448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="13">
+        <v>44812</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D11" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>0.29861111111111105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="13">
+        <v>44813</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0.35416666666666652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="33">
+        <v>44814</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="33">
+        <v>44815</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="13">
+        <v>44816</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="13">
+        <v>44817</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="D16" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="13">
+        <v>44818</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.29861111111111105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="13">
+        <v>44819</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="13">
+        <v>44820</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="33">
+        <v>44821</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="33">
+        <v>44822</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="33">
+        <v>44823</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13">
+        <v>44824</v>
+      </c>
+      <c r="B23" s="22">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C23" s="22">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D23" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0.42361111111111105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13">
+        <v>44825</v>
+      </c>
+      <c r="B24" s="22">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C24" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D24" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="23">
+        <v>0.26388888888888884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13">
+        <v>44826</v>
+      </c>
+      <c r="B25" s="22">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C25" s="22">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D25" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="23">
+        <v>0.31250000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="33">
+        <v>44827</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="33">
+        <v>44828</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="33">
+        <v>44829</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13">
+        <v>44830</v>
+      </c>
+      <c r="B29" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C29" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D29" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="23">
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13">
+        <v>44831</v>
+      </c>
+      <c r="B30" s="22">
+        <v>0.375</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D30" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13">
+        <v>44832</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D31" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="23">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13">
+        <v>44833</v>
+      </c>
+      <c r="B32" s="22">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C32" s="22">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D32" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="23">
+        <v>0.36805555555555558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="24">
+        <v>44834</v>
+      </c>
+      <c r="B33" s="25">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C33" s="25">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D33" s="25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="26">
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/download/TimeSheet.xlsx
+++ b/download/TimeSheet.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\Downloads\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\Documents\MyHomePage\kaixi\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2D6F7F-47A7-4B55-A448-D1F42090AC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA3700-C13F-46EE-946F-9459C4841B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
     <sheet name="August" sheetId="2" r:id="rId2"/>
     <sheet name="September" sheetId="3" r:id="rId3"/>
     <sheet name="October" sheetId="4" r:id="rId4"/>
+    <sheet name="November" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
   <si>
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +90,52 @@
   </si>
   <si>
     <t>148:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,14 +792,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -760,7 +807,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -769,7 +816,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -786,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44743</v>
       </c>
@@ -804,7 +851,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>44744</v>
       </c>
@@ -813,7 +860,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>44745</v>
       </c>
@@ -822,7 +869,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44746</v>
       </c>
@@ -840,7 +887,7 @@
         <v>0.36458333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44747</v>
       </c>
@@ -858,7 +905,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>44748</v>
       </c>
@@ -876,7 +923,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44749</v>
       </c>
@@ -894,7 +941,7 @@
         <v>0.38541666666666674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>44750</v>
       </c>
@@ -912,7 +959,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>44751</v>
       </c>
@@ -921,7 +968,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>44752</v>
       </c>
@@ -930,7 +977,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>44753</v>
       </c>
@@ -948,7 +995,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>44754</v>
       </c>
@@ -966,7 +1013,7 @@
         <v>0.39583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>44755</v>
       </c>
@@ -984,7 +1031,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>44756</v>
       </c>
@@ -1002,7 +1049,7 @@
         <v>0.48055555555555568</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>44757</v>
       </c>
@@ -1020,7 +1067,7 @@
         <v>0.52361111111111103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>44758</v>
       </c>
@@ -1029,7 +1076,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>44759</v>
       </c>
@@ -1038,7 +1085,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>44760</v>
       </c>
@@ -1047,7 +1094,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>44761</v>
       </c>
@@ -1056,7 +1103,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>44762</v>
       </c>
@@ -1074,7 +1121,7 @@
         <v>0.27361111111111108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>44763</v>
       </c>
@@ -1092,7 +1139,7 @@
         <v>0.46875000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>44764</v>
       </c>
@@ -1110,7 +1157,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>44765</v>
       </c>
@@ -1119,7 +1166,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>44766</v>
       </c>
@@ -1128,7 +1175,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>44767</v>
       </c>
@@ -1137,7 +1184,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>44768</v>
       </c>
@@ -1155,7 +1202,7 @@
         <v>0.30208333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>44769</v>
       </c>
@@ -1173,7 +1220,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>44770</v>
       </c>
@@ -1191,7 +1238,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>44771</v>
       </c>
@@ -1209,7 +1256,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>44772</v>
       </c>
@@ -1218,7 +1265,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>44773</v>
       </c>
@@ -1227,7 +1274,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
     </row>
   </sheetData>
@@ -1245,9 +1292,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1302,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1264,7 +1311,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44774</v>
       </c>
@@ -1299,7 +1346,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44775</v>
       </c>
@@ -1317,7 +1364,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44776</v>
       </c>
@@ -1334,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44777</v>
       </c>
@@ -1352,7 +1399,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44778</v>
       </c>
@@ -1370,7 +1417,7 @@
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>44779</v>
       </c>
@@ -1379,7 +1426,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>44780</v>
       </c>
@@ -1388,7 +1435,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>44781</v>
       </c>
@@ -1406,7 +1453,7 @@
         <v>0.18750000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>44782</v>
       </c>
@@ -1423,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>44783</v>
       </c>
@@ -1440,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>44784</v>
       </c>
@@ -1449,7 +1496,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>44785</v>
       </c>
@@ -1466,7 +1513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>44786</v>
       </c>
@@ -1475,7 +1522,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>44787</v>
       </c>
@@ -1490,7 +1537,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>44788</v>
       </c>
@@ -1508,7 +1555,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>44789</v>
       </c>
@@ -1526,7 +1573,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>44790</v>
       </c>
@@ -1544,7 +1591,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>44791</v>
       </c>
@@ -1562,7 +1609,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>44792</v>
       </c>
@@ -1580,7 +1627,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>44793</v>
       </c>
@@ -1589,7 +1636,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
         <v>44794</v>
       </c>
@@ -1598,7 +1645,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>44795</v>
       </c>
@@ -1616,7 +1663,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>44796</v>
       </c>
@@ -1633,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>44797</v>
       </c>
@@ -1651,7 +1698,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>44798</v>
       </c>
@@ -1669,7 +1716,7 @@
         <v>0.32291666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>44799</v>
       </c>
@@ -1687,7 +1734,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="24">
         <v>44800</v>
       </c>
@@ -1696,7 +1743,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="24">
         <v>44801</v>
       </c>
@@ -1705,7 +1752,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>44802</v>
       </c>
@@ -1723,7 +1770,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>44803</v>
       </c>
@@ -1741,7 +1788,7 @@
         <v>0.22916666666666671</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>44804</v>
       </c>
@@ -1774,9 +1821,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +1840,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>44805</v>
       </c>
@@ -1827,7 +1874,7 @@
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>44806</v>
       </c>
@@ -1844,7 +1891,7 @@
         <v>0.41666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44807</v>
       </c>
@@ -1861,7 +1908,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="30">
         <v>44808</v>
       </c>
@@ -1874,7 +1921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="30">
         <v>44809</v>
       </c>
@@ -1891,7 +1938,7 @@
         <v>0.39236111111111105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>44810</v>
       </c>
@@ -1908,7 +1955,7 @@
         <v>0.31597222222222215</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44811</v>
       </c>
@@ -1925,7 +1972,7 @@
         <v>0.31944444444444448</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>44812</v>
       </c>
@@ -1942,7 +1989,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>44813</v>
       </c>
@@ -1959,7 +2006,7 @@
         <v>0.35416666666666652</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>44814</v>
       </c>
@@ -1972,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="30">
         <v>44815</v>
       </c>
@@ -1985,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>44816</v>
       </c>
@@ -2002,7 +2049,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>44817</v>
       </c>
@@ -2019,7 +2066,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>44818</v>
       </c>
@@ -2036,7 +2083,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>44819</v>
       </c>
@@ -2053,7 +2100,7 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>44820</v>
       </c>
@@ -2070,7 +2117,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="30">
         <v>44821</v>
       </c>
@@ -2083,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="30">
         <v>44822</v>
       </c>
@@ -2096,7 +2143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="30">
         <v>44823</v>
       </c>
@@ -2109,7 +2156,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>44824</v>
       </c>
@@ -2126,7 +2173,7 @@
         <v>0.42361111111111105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>44825</v>
       </c>
@@ -2143,7 +2190,7 @@
         <v>0.26388888888888884</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>44826</v>
       </c>
@@ -2160,7 +2207,7 @@
         <v>0.31250000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="30">
         <v>44827</v>
       </c>
@@ -2173,7 +2220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="30">
         <v>44828</v>
       </c>
@@ -2186,7 +2233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="30">
         <v>44829</v>
       </c>
@@ -2199,7 +2246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>44830</v>
       </c>
@@ -2216,7 +2263,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>44831</v>
       </c>
@@ -2233,7 +2280,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>44832</v>
       </c>
@@ -2250,7 +2297,7 @@
         <v>0.28472222222222221</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>44833</v>
       </c>
@@ -2267,7 +2314,7 @@
         <v>0.36805555555555558</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="21">
         <v>44834</v>
       </c>
@@ -2295,13 +2342,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DAD36C-BA88-4482-AC2B-02025B6E551C}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2318,7 +2365,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2335,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="34">
         <v>44835</v>
       </c>
@@ -2346,7 +2393,7 @@
       </c>
       <c r="E4" s="36"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="34">
         <v>44836</v>
       </c>
@@ -2357,7 +2404,7 @@
       </c>
       <c r="E5" s="36"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>44837</v>
       </c>
@@ -2375,7 +2422,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>44838</v>
       </c>
@@ -2393,7 +2440,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>44839</v>
       </c>
@@ -2411,7 +2458,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>44840</v>
       </c>
@@ -2429,7 +2476,7 @@
         <v>0.30555555555555547</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>44841</v>
       </c>
@@ -2447,7 +2494,7 @@
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="34">
         <v>44842</v>
       </c>
@@ -2458,7 +2505,7 @@
       </c>
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="34">
         <v>44843</v>
       </c>
@@ -2469,7 +2516,7 @@
       </c>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="34">
         <v>44844</v>
       </c>
@@ -2480,7 +2527,7 @@
       </c>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>44845</v>
       </c>
@@ -2498,7 +2545,7 @@
         <v>0.31250000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>44846</v>
       </c>
@@ -2516,7 +2563,7 @@
         <v>0.30902777777777779</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>44847</v>
       </c>
@@ -2534,7 +2581,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>44848</v>
       </c>
@@ -2552,7 +2599,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="34">
         <v>44849</v>
       </c>
@@ -2563,7 +2610,7 @@
       </c>
       <c r="E18" s="36"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="34">
         <v>44850</v>
       </c>
@@ -2574,7 +2621,7 @@
       </c>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>44851</v>
       </c>
@@ -2592,7 +2639,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>44852</v>
       </c>
@@ -2610,7 +2657,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>44853</v>
       </c>
@@ -2628,7 +2675,7 @@
         <v>0.28819444444444436</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>44854</v>
       </c>
@@ -2646,7 +2693,7 @@
         <v>0.34027777777777785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>44855</v>
       </c>
@@ -2664,7 +2711,7 @@
         <v>0.30208333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="34">
         <v>44856</v>
       </c>
@@ -2675,7 +2722,7 @@
       </c>
       <c r="E25" s="36"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="34">
         <v>44857</v>
       </c>
@@ -2686,7 +2733,7 @@
       </c>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>44858</v>
       </c>
@@ -2704,7 +2751,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>44859</v>
       </c>
@@ -2722,7 +2769,7 @@
         <v>0.30902777777777768</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>44860</v>
       </c>
@@ -2740,7 +2787,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>44861</v>
       </c>
@@ -2758,7 +2805,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>44862</v>
       </c>
@@ -2776,7 +2823,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>44863</v>
       </c>
@@ -2787,7 +2834,7 @@
       </c>
       <c r="E32" s="36"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>44864</v>
       </c>
@@ -2798,7 +2845,7 @@
       </c>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="21">
         <v>44865</v>
       </c>
@@ -2821,4 +2868,531 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCEEDE9-162D-4C15-B2EA-6461FF5BE772}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>44866</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="8">
+        <f>C4-B4-D4</f>
+        <v>0.38541666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>44867</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <f>C5-B5-D5</f>
+        <v>0.27083333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="34">
+        <v>44868</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>44869</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="8">
+        <f>C7-B7-D7</f>
+        <v>0.42708333333333326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="34">
+        <v>44870</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="34">
+        <v>44871</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>44872</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" ref="E10:E21" si="0">C10-B10-D10</f>
+        <v>0.37500000000000011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>44873</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0.43749999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>44874</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39236111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>44875</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.39930555555555547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>44876</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.36458333333333326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="34">
+        <v>44877</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="34">
+        <v>44878</v>
+      </c>
+      <c r="B16" s="35">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.875</v>
+      </c>
+      <c r="D16" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" s="36">
+        <f t="shared" si="0"/>
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>44879</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.15972222222222229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>44880</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.34027777777777768</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>44881</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31597222222222227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>44882</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.37847222222222227</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.30902777777777768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>44883</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>0.21875000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="34">
+        <v>44884</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="34">
+        <v>44885</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" s="36"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>44886</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:E25" si="1">C24-B24-D24</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>44887</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
+        <v>44888</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="36"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>44889</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.78125</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" ref="E27:E28" si="2">C27-B27-D27</f>
+        <v>0.35416666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>44890</v>
+      </c>
+      <c r="B28" s="7">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.8125</v>
+      </c>
+      <c r="D28" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.38541666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34">
+        <v>44891</v>
+      </c>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34">
+        <v>44892</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E30" s="36"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>44893</v>
+      </c>
+      <c r="B31" s="7">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.9375</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" ref="E31:E33" si="3">C31-B31-D31</f>
+        <v>0.50694444444444453</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6">
+        <v>44894</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="3"/>
+        <v>0.48958333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="21">
+        <v>44895</v>
+      </c>
+      <c r="B33" s="22">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D33" s="22">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="23">
+        <f t="shared" si="3"/>
+        <v>0.13194444444444439</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/download/TimeSheet.xlsx
+++ b/download/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\Documents\MyHomePage\kaixi\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA3700-C13F-46EE-946F-9459C4841B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556265C1-82AB-4AA9-B476-42E3EA7C9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="September" sheetId="3" r:id="rId3"/>
     <sheet name="October" sheetId="4" r:id="rId4"/>
     <sheet name="November" sheetId="5" r:id="rId5"/>
+    <sheet name="December" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +139,18 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>162:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休暇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -147,7 +160,7 @@
     <numFmt numFmtId="176" formatCode="mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +196,21 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -457,7 +485,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -506,6 +534,27 @@
     <xf numFmtId="20" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2874,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCEEDE9-162D-4C15-B2EA-6461FF5BE772}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3395,4 +3444,552 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FB0B5-919B-4E87-B342-50E753727621}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="48">
+        <v>44896</v>
+      </c>
+      <c r="B4" s="49">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C4" s="49">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D4" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="50">
+        <f>C4-B4-D4</f>
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
+        <v>44897</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" s="50"/>
+      <c r="F5" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
+        <v>44898</v>
+      </c>
+      <c r="B6" s="56">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="C6" s="56">
+        <v>0.9375</v>
+      </c>
+      <c r="D6" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="57">
+        <f t="shared" ref="E6:E7" si="0">C6-B6-D6</f>
+        <v>0.1319444444444445</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
+        <v>44899</v>
+      </c>
+      <c r="B7" s="56">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="56">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D7" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="57">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>44900</v>
+      </c>
+      <c r="B8" s="49">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D8" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="54">
+        <f t="shared" ref="E8:E21" si="1">C8-B8-D8</f>
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
+        <v>44901</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48">
+        <v>44902</v>
+      </c>
+      <c r="B10" s="53">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10" s="54">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="48">
+        <v>44903</v>
+      </c>
+      <c r="B11" s="53">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="54">
+        <f t="shared" si="1"/>
+        <v>0.30902777777777773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="48">
+        <v>44904</v>
+      </c>
+      <c r="B12" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C12" s="53">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D12" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12" s="54">
+        <f t="shared" si="1"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="55">
+        <v>44905</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="57"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>44906</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="57"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="48">
+        <v>44907</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="48">
+        <v>44908</v>
+      </c>
+      <c r="B16" s="53">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D16" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" s="54">
+        <f t="shared" si="1"/>
+        <v>0.34027777777777779</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>44909</v>
+      </c>
+      <c r="B17" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C17" s="53">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D17" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="54">
+        <f t="shared" si="1"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>44910</v>
+      </c>
+      <c r="B18" s="53">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C18" s="53">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D18" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="54">
+        <f t="shared" si="1"/>
+        <v>0.42361111111111105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
+        <v>44911</v>
+      </c>
+      <c r="B19" s="53">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C19" s="53">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D19" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="54">
+        <f t="shared" si="1"/>
+        <v>0.36805555555555552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="55">
+        <v>44912</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="57"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="55">
+        <v>44913</v>
+      </c>
+      <c r="B21" s="56">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C21" s="56">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D21" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="57">
+        <f t="shared" si="1"/>
+        <v>0.20138888888888881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="48">
+        <v>44914</v>
+      </c>
+      <c r="B22" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C22" s="53">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D22" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="54">
+        <f t="shared" ref="E22:E26" si="2">C22-B22-D22</f>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="48">
+        <v>44915</v>
+      </c>
+      <c r="B23" s="53">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C23" s="53">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D23" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" s="54">
+        <f t="shared" si="2"/>
+        <v>0.30208333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="48">
+        <v>44916</v>
+      </c>
+      <c r="B24" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C24" s="53">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D24" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" si="2"/>
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="48">
+        <v>44917</v>
+      </c>
+      <c r="B25" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C25" s="53">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D25" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="2"/>
+        <v>0.30208333333333326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="48">
+        <v>44918</v>
+      </c>
+      <c r="B26" s="53">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C26" s="53">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="D26" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" si="2"/>
+        <v>0.32986111111111105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="55">
+        <v>44919</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="55">
+        <v>44920</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="57"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="48">
+        <v>44921</v>
+      </c>
+      <c r="B29" s="53">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C29" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" ref="E29:E34" si="3">C29-B29-D29</f>
+        <v>0.32291666666666663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="48">
+        <v>44922</v>
+      </c>
+      <c r="B30" s="53">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C30" s="53">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" si="3"/>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="48">
+        <v>44923</v>
+      </c>
+      <c r="B31" s="53">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C31" s="53">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D31" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="54">
+        <f t="shared" si="3"/>
+        <v>0.15277777777777782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>44924</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="54"/>
+      <c r="F32" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>44925</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="53">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="58">
+        <v>44926</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E34" s="60"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/download/TimeSheet.xlsx
+++ b/download/TimeSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\Documents\MyHomePage\kaixi\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenk\OneDrive\デスクトップ\kaixi\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556265C1-82AB-4AA9-B476-42E3EA7C9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3013AAF4-DF79-49C0-A19D-F6E953BE62E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="July" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="October" sheetId="4" r:id="rId4"/>
     <sheet name="November" sheetId="5" r:id="rId5"/>
     <sheet name="December" sheetId="6" r:id="rId6"/>
+    <sheet name="January" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="20">
   <si>
     <t>合計</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +152,18 @@
     <t>年末</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>通院の為全休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通院の為午前休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +173,7 @@
     <numFmt numFmtId="176" formatCode="mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -485,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -547,17 +560,22 @@
     <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,14 +859,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -856,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -865,7 +883,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -882,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>44743</v>
       </c>
@@ -900,7 +918,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="9">
         <v>44744</v>
       </c>
@@ -909,7 +927,7 @@
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="9">
         <v>44745</v>
       </c>
@@ -918,7 +936,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>44746</v>
       </c>
@@ -936,7 +954,7 @@
         <v>0.36458333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>44747</v>
       </c>
@@ -954,7 +972,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>44748</v>
       </c>
@@ -972,7 +990,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>44749</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>0.38541666666666674</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>44750</v>
       </c>
@@ -1008,7 +1026,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="9">
         <v>44751</v>
       </c>
@@ -1017,7 +1035,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="9">
         <v>44752</v>
       </c>
@@ -1026,7 +1044,7 @@
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>44753</v>
       </c>
@@ -1044,7 +1062,7 @@
         <v>0.38541666666666669</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>44754</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>0.39583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
         <v>44755</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>44756</v>
       </c>
@@ -1098,7 +1116,7 @@
         <v>0.48055555555555568</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>44757</v>
       </c>
@@ -1116,7 +1134,7 @@
         <v>0.52361111111111103</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="9">
         <v>44758</v>
       </c>
@@ -1125,7 +1143,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="9">
         <v>44759</v>
       </c>
@@ -1134,7 +1152,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="9">
         <v>44760</v>
       </c>
@@ -1143,7 +1161,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="9">
         <v>44761</v>
       </c>
@@ -1152,7 +1170,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>44762</v>
       </c>
@@ -1170,7 +1188,7 @@
         <v>0.27361111111111108</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>44763</v>
       </c>
@@ -1188,7 +1206,7 @@
         <v>0.46875000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>44764</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>0.47916666666666669</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="9">
         <v>44765</v>
       </c>
@@ -1215,7 +1233,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="9">
         <v>44766</v>
       </c>
@@ -1224,7 +1242,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="9">
         <v>44767</v>
       </c>
@@ -1233,7 +1251,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>44768</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>0.30208333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>44769</v>
       </c>
@@ -1269,7 +1287,7 @@
         <v>0.38888888888888884</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>44770</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>44771</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="9">
         <v>44772</v>
       </c>
@@ -1314,7 +1332,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="13">
         <v>44773</v>
       </c>
@@ -1323,7 +1341,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="E35" s="2"/>
     </row>
   </sheetData>
@@ -1341,9 +1359,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1378,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>44774</v>
       </c>
@@ -1395,7 +1413,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>44775</v>
       </c>
@@ -1413,7 +1431,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>44776</v>
       </c>
@@ -1430,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>44777</v>
       </c>
@@ -1448,7 +1466,7 @@
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>44778</v>
       </c>
@@ -1466,7 +1484,7 @@
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="24">
         <v>44779</v>
       </c>
@@ -1475,7 +1493,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="24">
         <v>44780</v>
       </c>
@@ -1484,7 +1502,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>44781</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>0.18750000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>44782</v>
       </c>
@@ -1519,7 +1537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>44783</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="24">
         <v>44784</v>
       </c>
@@ -1545,7 +1563,7 @@
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>44785</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="24">
         <v>44786</v>
       </c>
@@ -1571,7 +1589,7 @@
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="24">
         <v>44787</v>
       </c>
@@ -1586,7 +1604,7 @@
       </c>
       <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>44788</v>
       </c>
@@ -1604,7 +1622,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>44789</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>44790</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>44791</v>
       </c>
@@ -1658,7 +1676,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>44792</v>
       </c>
@@ -1676,7 +1694,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="24">
         <v>44793</v>
       </c>
@@ -1685,7 +1703,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="24">
         <v>44794</v>
       </c>
@@ -1694,7 +1712,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>44795</v>
       </c>
@@ -1712,7 +1730,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="6">
         <v>44796</v>
       </c>
@@ -1729,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>44797</v>
       </c>
@@ -1747,7 +1765,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>44798</v>
       </c>
@@ -1765,7 +1783,7 @@
         <v>0.32291666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>44799</v>
       </c>
@@ -1783,7 +1801,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="24">
         <v>44800</v>
       </c>
@@ -1792,7 +1810,7 @@
       <c r="D30" s="25"/>
       <c r="E30" s="26"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="24">
         <v>44801</v>
       </c>
@@ -1801,7 +1819,7 @@
       <c r="D31" s="25"/>
       <c r="E31" s="26"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>44802</v>
       </c>
@@ -1819,7 +1837,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="6">
         <v>44803</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>0.22916666666666671</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="21">
         <v>44804</v>
       </c>
@@ -1870,9 +1888,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -1880,7 +1898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1907,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1906,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>44805</v>
       </c>
@@ -1923,7 +1941,7 @@
         <v>0.43402777777777779</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>44806</v>
       </c>
@@ -1940,7 +1958,7 @@
         <v>0.41666666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>44807</v>
       </c>
@@ -1957,7 +1975,7 @@
         <v>0.32291666666666669</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="30">
         <v>44808</v>
       </c>
@@ -1970,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="30">
         <v>44809</v>
       </c>
@@ -1987,7 +2005,7 @@
         <v>0.39236111111111105</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>44810</v>
       </c>
@@ -2004,7 +2022,7 @@
         <v>0.31597222222222215</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>44811</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>0.31944444444444448</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>44812</v>
       </c>
@@ -2038,7 +2056,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>44813</v>
       </c>
@@ -2055,7 +2073,7 @@
         <v>0.35416666666666652</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="30">
         <v>44814</v>
       </c>
@@ -2068,7 +2086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="30">
         <v>44815</v>
       </c>
@@ -2081,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>44816</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
         <v>44817</v>
       </c>
@@ -2115,7 +2133,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>44818</v>
       </c>
@@ -2132,7 +2150,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>44819</v>
       </c>
@@ -2149,7 +2167,7 @@
         <v>0.34722222222222227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>44820</v>
       </c>
@@ -2166,7 +2184,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="30">
         <v>44821</v>
       </c>
@@ -2179,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="30">
         <v>44822</v>
       </c>
@@ -2192,7 +2210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="30">
         <v>44823</v>
       </c>
@@ -2205,7 +2223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>44824</v>
       </c>
@@ -2222,7 +2240,7 @@
         <v>0.42361111111111105</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>44825</v>
       </c>
@@ -2239,7 +2257,7 @@
         <v>0.26388888888888884</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>44826</v>
       </c>
@@ -2256,7 +2274,7 @@
         <v>0.31250000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="30">
         <v>44827</v>
       </c>
@@ -2269,7 +2287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="30">
         <v>44828</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="30">
         <v>44829</v>
       </c>
@@ -2295,7 +2313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>44830</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>44831</v>
       </c>
@@ -2329,7 +2347,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>44832</v>
       </c>
@@ -2346,7 +2364,7 @@
         <v>0.28472222222222221</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>44833</v>
       </c>
@@ -2363,7 +2381,7 @@
         <v>0.36805555555555558</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="21">
         <v>44834</v>
       </c>
@@ -2395,9 +2413,9 @@
       <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2414,7 +2432,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2431,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="34">
         <v>44835</v>
       </c>
@@ -2442,7 +2460,7 @@
       </c>
       <c r="E4" s="36"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="34">
         <v>44836</v>
       </c>
@@ -2453,7 +2471,7 @@
       </c>
       <c r="E5" s="36"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="6">
         <v>44837</v>
       </c>
@@ -2471,7 +2489,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>44838</v>
       </c>
@@ -2489,7 +2507,7 @@
         <v>0.30555555555555552</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="6">
         <v>44839</v>
       </c>
@@ -2507,7 +2525,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="6">
         <v>44840</v>
       </c>
@@ -2525,7 +2543,7 @@
         <v>0.30555555555555547</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>44841</v>
       </c>
@@ -2543,7 +2561,7 @@
         <v>0.29166666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="34">
         <v>44842</v>
       </c>
@@ -2554,7 +2572,7 @@
       </c>
       <c r="E11" s="36"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="34">
         <v>44843</v>
       </c>
@@ -2565,7 +2583,7 @@
       </c>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="34">
         <v>44844</v>
       </c>
@@ -2576,7 +2594,7 @@
       </c>
       <c r="E13" s="36"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>44845</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>0.31250000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="6">
         <v>44846</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>0.30902777777777779</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="6">
         <v>44847</v>
       </c>
@@ -2630,7 +2648,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>44848</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>0.29861111111111105</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="34">
         <v>44849</v>
       </c>
@@ -2659,7 +2677,7 @@
       </c>
       <c r="E18" s="36"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="34">
         <v>44850</v>
       </c>
@@ -2670,7 +2688,7 @@
       </c>
       <c r="E19" s="36"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>44851</v>
       </c>
@@ -2688,7 +2706,7 @@
         <v>0.35416666666666669</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>44852</v>
       </c>
@@ -2706,7 +2724,7 @@
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>44853</v>
       </c>
@@ -2724,7 +2742,7 @@
         <v>0.28819444444444436</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>44854</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0.34027777777777785</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>44855</v>
       </c>
@@ -2760,7 +2778,7 @@
         <v>0.30208333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="34">
         <v>44856</v>
       </c>
@@ -2771,7 +2789,7 @@
       </c>
       <c r="E25" s="36"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="34">
         <v>44857</v>
       </c>
@@ -2782,7 +2800,7 @@
       </c>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>44858</v>
       </c>
@@ -2800,7 +2818,7 @@
         <v>0.31249999999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>44859</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>0.30902777777777768</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="6">
         <v>44860</v>
       </c>
@@ -2836,7 +2854,7 @@
         <v>0.3263888888888889</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="6">
         <v>44861</v>
       </c>
@@ -2854,7 +2872,7 @@
         <v>0.35069444444444442</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>44862</v>
       </c>
@@ -2872,7 +2890,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="34">
         <v>44863</v>
       </c>
@@ -2883,7 +2901,7 @@
       </c>
       <c r="E32" s="36"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="34">
         <v>44864</v>
       </c>
@@ -2894,7 +2912,7 @@
       </c>
       <c r="E33" s="38"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="21">
         <v>44865</v>
       </c>
@@ -2927,9 +2945,9 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2937,7 +2955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18.75">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -2946,7 +2964,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="6">
         <v>44866</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>0.38541666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="6">
         <v>44867</v>
       </c>
@@ -2999,7 +3017,7 @@
         <v>0.27083333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="34">
         <v>44868</v>
       </c>
@@ -3010,7 +3028,7 @@
       </c>
       <c r="E6" s="36"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="6">
         <v>44869</v>
       </c>
@@ -3028,7 +3046,7 @@
         <v>0.42708333333333326</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="34">
         <v>44870</v>
       </c>
@@ -3039,7 +3057,7 @@
       </c>
       <c r="E8" s="36"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="34">
         <v>44871</v>
       </c>
@@ -3050,7 +3068,7 @@
       </c>
       <c r="E9" s="36"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="6">
         <v>44872</v>
       </c>
@@ -3068,7 +3086,7 @@
         <v>0.37500000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="6">
         <v>44873</v>
       </c>
@@ -3086,7 +3104,7 @@
         <v>0.43749999999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="6">
         <v>44874</v>
       </c>
@@ -3104,7 +3122,7 @@
         <v>0.39236111111111116</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="6">
         <v>44875</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>0.39930555555555547</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="6">
         <v>44876</v>
       </c>
@@ -3140,7 +3158,7 @@
         <v>0.36458333333333326</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="34">
         <v>44877</v>
       </c>
@@ -3151,7 +3169,7 @@
       </c>
       <c r="E15" s="36"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="34">
         <v>44878</v>
       </c>
@@ -3169,7 +3187,7 @@
         <v>0.40277777777777773</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="6">
         <v>44879</v>
       </c>
@@ -3187,7 +3205,7 @@
         <v>0.15972222222222229</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="6">
         <v>44880</v>
       </c>
@@ -3205,7 +3223,7 @@
         <v>0.34027777777777768</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" s="6">
         <v>44881</v>
       </c>
@@ -3223,7 +3241,7 @@
         <v>0.31597222222222227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" s="6">
         <v>44882</v>
       </c>
@@ -3241,7 +3259,7 @@
         <v>0.30902777777777768</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" s="6">
         <v>44883</v>
       </c>
@@ -3259,7 +3277,7 @@
         <v>0.21875000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" s="34">
         <v>44884</v>
       </c>
@@ -3270,7 +3288,7 @@
       </c>
       <c r="E22" s="36"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" s="34">
         <v>44885</v>
       </c>
@@ -3281,7 +3299,7 @@
       </c>
       <c r="E23" s="36"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>44886</v>
       </c>
@@ -3299,7 +3317,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>44887</v>
       </c>
@@ -3317,7 +3335,7 @@
         <v>0.34375</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5">
       <c r="A26" s="34">
         <v>44888</v>
       </c>
@@ -3328,7 +3346,7 @@
       </c>
       <c r="E26" s="36"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="6">
         <v>44889</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>0.35416666666666663</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5">
       <c r="A28" s="6">
         <v>44890</v>
       </c>
@@ -3364,7 +3382,7 @@
         <v>0.38541666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5">
       <c r="A29" s="34">
         <v>44891</v>
       </c>
@@ -3375,7 +3393,7 @@
       </c>
       <c r="E29" s="36"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5">
       <c r="A30" s="34">
         <v>44892</v>
       </c>
@@ -3386,7 +3404,7 @@
       </c>
       <c r="E30" s="36"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="6">
         <v>44893</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>0.50694444444444453</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="6">
         <v>44894</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>0.48958333333333331</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="21">
         <v>44895</v>
       </c>
@@ -3450,16 +3468,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FB0B5-919B-4E87-B342-50E753727621}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="45" t="s">
         <v>6</v>
       </c>
@@ -3492,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="48">
         <v>44896</v>
       </c>
@@ -3510,7 +3528,7 @@
         <v>0.49652777777777773</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="48">
         <v>44897</v>
       </c>
@@ -3524,43 +3542,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55">
+    <row r="6" spans="1:6">
+      <c r="A6" s="53">
         <v>44898</v>
       </c>
-      <c r="B6" s="56">
+      <c r="B6" s="54">
         <v>0.76388888888888884</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="54">
         <v>0.9375</v>
       </c>
-      <c r="D6" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E6" s="57">
+      <c r="D6" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="55">
         <f t="shared" ref="E6:E7" si="0">C6-B6-D6</f>
         <v>0.1319444444444445</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="55">
+    <row r="7" spans="1:6">
+      <c r="A7" s="53">
         <v>44899</v>
       </c>
-      <c r="B7" s="56">
+      <c r="B7" s="54">
         <v>0.375</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="54">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D7" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E7" s="57">
+      <c r="D7" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E7" s="55">
         <f t="shared" si="0"/>
         <v>0.54166666666666674</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="48">
         <v>44900</v>
       </c>
@@ -3570,406 +3588,406 @@
       <c r="C8" s="49">
         <v>0.97916666666666663</v>
       </c>
-      <c r="D8" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E8" s="54">
+      <c r="D8" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="50">
         <f t="shared" ref="E8:E21" si="1">C8-B8-D8</f>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="48">
         <v>44901</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E9" s="54"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9" s="50"/>
       <c r="F9" s="42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="48">
         <v>44902</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="49">
         <v>0.375</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="49">
         <v>0.75</v>
       </c>
-      <c r="D10" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E10" s="54">
+      <c r="D10" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10" s="50">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="48">
         <v>44903</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="49">
         <v>0.39930555555555558</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="49">
         <v>0.75</v>
       </c>
-      <c r="D11" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E11" s="54">
+      <c r="D11" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="50">
         <f t="shared" si="1"/>
         <v>0.30902777777777773</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="48">
         <v>44904</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="49">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D12" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E12" s="54">
+      <c r="D12" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12" s="50">
         <f t="shared" si="1"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="55">
+    <row r="13" spans="1:6">
+      <c r="A13" s="53">
         <v>44905</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E13" s="57"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="55"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="53">
         <v>44906</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E14" s="57"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="55"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="48">
         <v>44907</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E15" s="54"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" s="50"/>
       <c r="F15" s="42" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="48">
         <v>44908</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="49">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="49">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D16" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="D16" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" s="50">
         <f t="shared" si="1"/>
         <v>0.34027777777777779</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="48">
         <v>44909</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="49">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D17" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E17" s="54">
+      <c r="D17" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="50">
         <f t="shared" si="1"/>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="48">
         <v>44910</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="49">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="49">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D18" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E18" s="54">
+      <c r="D18" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="50">
         <f t="shared" si="1"/>
         <v>0.42361111111111105</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="48">
         <v>44911</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="49">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="49">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D19" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E19" s="54">
+      <c r="D19" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="50">
         <f t="shared" si="1"/>
         <v>0.36805555555555552</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="55">
+    <row r="20" spans="1:6">
+      <c r="A20" s="53">
         <v>44912</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E20" s="57"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="55">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="55"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="53">
         <v>44913</v>
       </c>
-      <c r="B21" s="56">
+      <c r="B21" s="54">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="54">
         <v>0.76388888888888884</v>
       </c>
-      <c r="D21" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E21" s="57">
+      <c r="D21" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="55">
         <f t="shared" si="1"/>
         <v>0.20138888888888881</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="48">
         <v>44914</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="49">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D22" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E22" s="54">
+      <c r="D22" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="50">
         <f t="shared" ref="E22:E26" si="2">C22-B22-D22</f>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="48">
         <v>44915</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="49">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="49">
         <v>0.73958333333333337</v>
       </c>
-      <c r="D23" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E23" s="54">
+      <c r="D23" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" s="50">
         <f t="shared" si="2"/>
         <v>0.30208333333333337</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="48">
         <v>44916</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="49">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D24" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E24" s="54">
+      <c r="D24" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="50">
         <f t="shared" si="2"/>
         <v>0.34375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="48">
         <v>44917</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="49">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D25" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E25" s="54">
+      <c r="D25" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="50">
         <f t="shared" si="2"/>
         <v>0.30208333333333326</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="48">
         <v>44918</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="49">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="49">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D26" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E26" s="54">
+      <c r="D26" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="50">
         <f t="shared" si="2"/>
         <v>0.32986111111111105</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55">
+    <row r="27" spans="1:6">
+      <c r="A27" s="53">
         <v>44919</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E27" s="57"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="55">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="55"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="53">
         <v>44920</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E28" s="57"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="55"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="48">
         <v>44921</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="49">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="49">
         <v>0.75</v>
       </c>
-      <c r="D29" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E29" s="54">
-        <f t="shared" ref="E29:E34" si="3">C29-B29-D29</f>
+      <c r="D29" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="50">
+        <f t="shared" ref="E29:E31" si="3">C29-B29-D29</f>
         <v>0.32291666666666663</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="48">
         <v>44922</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="49">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="49">
         <v>0.75</v>
       </c>
-      <c r="D30" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E30" s="54">
+      <c r="D30" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E30" s="50">
         <f t="shared" si="3"/>
         <v>0.31944444444444442</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="48">
         <v>44923</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="49">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="49">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D31" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E31" s="54">
+      <c r="D31" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="50">
         <f t="shared" si="3"/>
         <v>0.15277777777777782</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="48">
         <v>44924</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E32" s="54"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="50"/>
       <c r="F32" s="42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="48">
         <v>44925</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="51"/>
-      <c r="D33" s="53">
+      <c r="D33" s="49">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E33" s="52"/>
@@ -3977,19 +3995,549 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="58">
+    <row r="34" spans="1:6">
+      <c r="A34" s="56">
         <v>44926</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E34" s="60"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E34" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA1B522-4B21-4987-BFFB-D2032D8EC703}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="53">
+        <v>44927</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4" s="55"/>
+      <c r="F4" s="64"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="53">
+        <v>44928</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="53">
+        <v>44929</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="48">
+        <v>44930</v>
+      </c>
+      <c r="B7" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C7" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="59">
+        <v>0</v>
+      </c>
+      <c r="E7" s="60">
+        <f t="shared" ref="E6:E30" si="0">C7-B7-D7</f>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48">
+        <v>44931</v>
+      </c>
+      <c r="B8" s="59">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C8" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D8" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E8" s="60">
+        <f t="shared" si="0"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="48">
+        <v>44932</v>
+      </c>
+      <c r="B9" s="59">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C9" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D9" s="59">
+        <v>0</v>
+      </c>
+      <c r="E9" s="60">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="53">
+        <v>44933</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="53">
+        <v>44934</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="53">
+        <v>44935</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E12" s="55"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="48">
+        <v>44936</v>
+      </c>
+      <c r="B13" s="59">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C13" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D13" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13" s="60">
+        <f t="shared" si="0"/>
+        <v>0.29861111111111105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="48">
+        <v>44937</v>
+      </c>
+      <c r="B14" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C14" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D14" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E14" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="48">
+        <v>44938</v>
+      </c>
+      <c r="B15" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D15" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="48">
+        <v>44939</v>
+      </c>
+      <c r="B16" s="59">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C16" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D16" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E16" s="60">
+        <f t="shared" si="0"/>
+        <v>0.27083333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="53">
+        <v>44940</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="53">
+        <v>44941</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E18" s="55"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="48">
+        <v>44942</v>
+      </c>
+      <c r="B19" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C19" s="59">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D19" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E19" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="48">
+        <v>44943</v>
+      </c>
+      <c r="B20" s="59">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C20" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D20" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E20" s="60">
+        <f t="shared" si="0"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="48">
+        <v>44944</v>
+      </c>
+      <c r="B21" s="59">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C21" s="59">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D21" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E21" s="60">
+        <f t="shared" si="0"/>
+        <v>0.36111111111111105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="48">
+        <v>44945</v>
+      </c>
+      <c r="B22" s="59">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C22" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D22" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E22" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="48">
+        <v>44946</v>
+      </c>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E23" s="60"/>
+      <c r="F23" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="53">
+        <v>44947</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E24" s="55"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="53">
+        <v>44948</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="48">
+        <v>44949</v>
+      </c>
+      <c r="B26" s="59">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C26" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D26" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E26" s="60">
+        <f t="shared" si="0"/>
+        <v>0.34722222222222227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="48">
+        <v>44950</v>
+      </c>
+      <c r="B27" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C27" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D27" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E27" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="48">
+        <v>44951</v>
+      </c>
+      <c r="B28" s="59">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C28" s="59">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D28" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E28" s="60">
+        <f t="shared" si="0"/>
+        <v>0.30208333333333326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="48">
+        <v>44952</v>
+      </c>
+      <c r="B29" s="59">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C29" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E29" s="60">
+        <f t="shared" si="0"/>
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="48">
+        <v>44953</v>
+      </c>
+      <c r="B30" s="59">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C30" s="59">
+        <v>0.75</v>
+      </c>
+      <c r="D30" s="59">
+        <v>0</v>
+      </c>
+      <c r="E30" s="60">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333337</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="53">
+        <v>44954</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="53">
+        <v>44955</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E32" s="55"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="48">
+        <v>44956</v>
+      </c>
+      <c r="B33" s="61">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C33" s="61">
+        <v>0.75</v>
+      </c>
+      <c r="D33" s="59">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E33" s="60">
+        <f t="shared" ref="E33:E34" si="1">C33-B33-D33</f>
+        <v>0.31944444444444442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="65">
+        <v>44957</v>
+      </c>
+      <c r="B34" s="62">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="C34" s="62">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D34" s="62">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E34" s="63">
+        <f t="shared" si="1"/>
+        <v>0.28472222222222227</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>